--- a/fcst_results/arima_with_outliers_summary_stats_IAH-Int.xlsx
+++ b/fcst_results/arima_with_outliers_summary_stats_IAH-Int.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,19 +475,19 @@
         <v>-39880</v>
       </c>
       <c r="C2" t="n">
-        <v>11400</v>
+        <v>95000</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.487</v>
+        <v>-0.42</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.675</v>
       </c>
       <c r="F2" t="n">
-        <v>-62300</v>
+        <v>-226000</v>
       </c>
       <c r="G2" t="n">
-        <v>-17500</v>
+        <v>146000</v>
       </c>
     </row>
     <row r="3">
@@ -500,19 +500,19 @@
         <v>-64500</v>
       </c>
       <c r="C3" t="n">
-        <v>17500</v>
+        <v>96900</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.694</v>
+        <v>-0.666</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.506</v>
       </c>
       <c r="F3" t="n">
-        <v>-98700</v>
+        <v>-254000</v>
       </c>
       <c r="G3" t="n">
-        <v>-30300</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="4">
@@ -525,419 +525,319 @@
         <v>-72080</v>
       </c>
       <c r="C4" t="n">
-        <v>12400</v>
+        <v>91000</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.819</v>
+        <v>-0.792</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.429</v>
       </c>
       <c r="F4" t="n">
-        <v>-96400</v>
+        <v>-251000</v>
       </c>
       <c r="G4" t="n">
-        <v>-47800</v>
+        <v>106000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>LS2020Mar</t>
+          <t>AO2020Apr</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-265800</v>
+        <v>-318200</v>
       </c>
       <c r="C5" t="n">
-        <v>27600</v>
+        <v>29600</v>
       </c>
       <c r="D5" t="n">
-        <v>-9.630000000000001</v>
+        <v>-10.76</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-320000</v>
+        <v>-376000</v>
       </c>
       <c r="G5" t="n">
-        <v>-212000</v>
+        <v>-260000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AO2020Apr</t>
+          <t>AO2020May</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103500</v>
+        <v>-377700</v>
       </c>
       <c r="C6" t="n">
-        <v>15700</v>
+        <v>24200</v>
       </c>
       <c r="D6" t="n">
-        <v>6.597</v>
+        <v>-15.639</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>72800</v>
+        <v>-425000</v>
       </c>
       <c r="G6" t="n">
-        <v>134000</v>
+        <v>-330000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>LS2020Apr</t>
+          <t>AO2020Aug</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-243100</v>
+        <v>-324900</v>
       </c>
       <c r="C7" t="n">
-        <v>25400</v>
+        <v>29400</v>
       </c>
       <c r="D7" t="n">
-        <v>-9.566000000000001</v>
+        <v>-11.039</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-293000</v>
+        <v>-383000</v>
       </c>
       <c r="G7" t="n">
-        <v>-193000</v>
+        <v>-267000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AO2020May</t>
+          <t>ar.L1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43950</v>
+        <v>-0.5704</v>
       </c>
       <c r="C8" t="n">
-        <v>16300</v>
+        <v>0.134</v>
       </c>
       <c r="D8" t="n">
-        <v>2.698</v>
+        <v>-4.269</v>
       </c>
       <c r="E8" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12000</v>
+        <v>-0.832</v>
       </c>
       <c r="G8" t="n">
-        <v>75900</v>
+        <v>-0.308</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AO2020Aug</t>
+          <t>ar.L2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>96760</v>
+        <v>0.2459</v>
       </c>
       <c r="C9" t="n">
-        <v>33000</v>
+        <v>0.076</v>
       </c>
       <c r="D9" t="n">
-        <v>2.934</v>
+        <v>3.224</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F9" t="n">
-        <v>32100</v>
+        <v>0.096</v>
       </c>
       <c r="G9" t="n">
-        <v>161000</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>LS2020Sep</t>
+          <t>ar.L3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189400</v>
+        <v>0.5436</v>
       </c>
       <c r="C10" t="n">
-        <v>18000</v>
+        <v>0.103</v>
       </c>
       <c r="D10" t="n">
-        <v>10.544</v>
+        <v>5.26</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>154000</v>
+        <v>0.341</v>
       </c>
       <c r="G10" t="n">
-        <v>225000</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>LS2021Apr</t>
+          <t>ar.L4</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>145100</v>
+        <v>0.5141</v>
       </c>
       <c r="C11" t="n">
-        <v>12000</v>
+        <v>0.082</v>
       </c>
       <c r="D11" t="n">
-        <v>12.049</v>
+        <v>6.267</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>121000</v>
+        <v>0.353</v>
       </c>
       <c r="G11" t="n">
-        <v>169000</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ar.L1</t>
+          <t>ma.L1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1115</v>
+        <v>1.2333</v>
       </c>
       <c r="C12" t="n">
-        <v>0.045</v>
+        <v>0.151</v>
       </c>
       <c r="D12" t="n">
-        <v>2.489</v>
+        <v>8.15</v>
       </c>
       <c r="E12" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.024</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.199</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ar.L2</t>
+          <t>ma.L2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.6516999999999999</v>
+        <v>0.3765</v>
       </c>
       <c r="C13" t="n">
-        <v>0.035</v>
+        <v>0.115</v>
       </c>
       <c r="D13" t="n">
-        <v>-18.884</v>
+        <v>3.283</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.719</v>
+        <v>0.152</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.584</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ar.L3</t>
+          <t>ma.S.L12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.539</v>
+        <v>-0.8548</v>
       </c>
       <c r="C14" t="n">
-        <v>0.021</v>
+        <v>0.083</v>
       </c>
       <c r="D14" t="n">
-        <v>26.056</v>
+        <v>-10.282</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.498</v>
+        <v>-1.018</v>
       </c>
       <c r="G14" t="n">
-        <v>0.58</v>
+        <v>-0.6919999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ar.L4</t>
+          <t>ma.S.L24</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1041</v>
+        <v>0.2257</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04</v>
+        <v>0.123</v>
       </c>
       <c r="D15" t="n">
-        <v>2.618</v>
+        <v>1.835</v>
       </c>
       <c r="E15" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.066</v>
       </c>
       <c r="F15" t="n">
-        <v>0.026</v>
+        <v>-0.015</v>
       </c>
       <c r="G15" t="n">
-        <v>0.182</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ma.L1</t>
+          <t>sigma2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.353</v>
+        <v>2313000000</v>
       </c>
       <c r="C16" t="n">
-        <v>0.034</v>
+        <v>20.776</v>
       </c>
       <c r="D16" t="n">
-        <v>10.336</v>
+        <v>111000000</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.286</v>
+        <v>2310000000</v>
       </c>
       <c r="G16" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>ma.L2</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.929</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="D17" t="n">
-        <v>25.944</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.859</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>ma.S.L12</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.1859</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-7.574</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.234</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.138</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>ma.S.L24</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.06610000000000001</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>sigma2</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>194200000</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4.803</v>
-      </c>
-      <c r="D20" t="n">
-        <v>40400000</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>194000000</v>
-      </c>
-      <c r="G20" t="n">
-        <v>194000000</v>
+        <v>2310000000</v>
       </c>
     </row>
   </sheetData>
